--- a/P1/UX-DIU-Toolkit-master/photos/DIU-PRACTICA-FINAL.xlsx
+++ b/P1/UX-DIU-Toolkit-master/photos/DIU-PRACTICA-FINAL.xlsx
@@ -868,7 +868,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="227">
   <si>
     <t xml:space="preserve">Usability review (Español)</t>
   </si>
@@ -954,9 +954,6 @@
   </si>
   <si>
     <t xml:space="preserve">Las llamadas a las acciones (por ejemplo, registrarse, agregar a la cesta, enviar) son claras, están bien etiquetadas y aparecen como cliqueables.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lo que son todas las etiquetas están bien etiquetadas y aparecen como cliqueables.Todas las acciones son claras.</t>
   </si>
   <si>
     <t xml:space="preserve">Homepage / starting page</t>
@@ -3304,15 +3301,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -3327,9 +3315,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3343,7 +3331,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="828360"/>
-          <a:ext cx="304560" cy="304560"/>
+          <a:ext cx="304200" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3369,9 +3357,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304560</xdr:colOff>
+      <xdr:colOff>304200</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>304560</xdr:rowOff>
+      <xdr:rowOff>304200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3385,7 +3373,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="828360"/>
-          <a:ext cx="304560" cy="304560"/>
+          <a:ext cx="304200" cy="304200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3405,13 +3393,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z327"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A99" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L123" activeCellId="0" sqref="L123"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I115" activeCellId="0" sqref="I115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.29"/>
@@ -3978,9 +3966,7 @@
         <v>#REF!</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="40" t="s">
-        <v>28</v>
-      </c>
+      <c r="I17" s="40"/>
       <c r="J17" s="5"/>
       <c r="K17" s="41" t="n">
         <v>3</v>
@@ -4024,7 +4010,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="44"/>
@@ -4062,7 +4048,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="46" t="s">
@@ -4079,7 +4065,7 @@
       </c>
       <c r="H21" s="5"/>
       <c r="I21" s="40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="41" t="n">
@@ -4128,7 +4114,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="46" t="s">
@@ -4145,7 +4131,7 @@
       </c>
       <c r="H23" s="5"/>
       <c r="I23" s="40" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="41" t="n">
@@ -4195,7 +4181,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="46" t="s">
@@ -4206,7 +4192,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
       <c r="I25" s="40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="41" t="n">
@@ -4252,7 +4238,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="54"/>
@@ -4296,7 +4282,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="46" t="s">
@@ -4313,7 +4299,7 @@
       </c>
       <c r="H29" s="5"/>
       <c r="I29" s="40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J29" s="5"/>
       <c r="K29" s="41" t="n">
@@ -4366,7 +4352,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="46" t="s">
@@ -4383,7 +4369,7 @@
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="41" t="n">
@@ -4429,7 +4415,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="46" t="s">
@@ -4440,7 +4426,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
       <c r="I33" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J33" s="5"/>
       <c r="K33" s="41" t="n">
@@ -4486,7 +4472,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="46" t="s">
@@ -4503,7 +4489,7 @@
       </c>
       <c r="H35" s="5"/>
       <c r="I35" s="40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35" s="5"/>
       <c r="K35" s="41" t="n">
@@ -4549,7 +4535,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="46" t="s">
@@ -4566,7 +4552,7 @@
       </c>
       <c r="H37" s="5"/>
       <c r="I37" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J37" s="5"/>
       <c r="K37" s="41" t="n">
@@ -4612,7 +4598,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="39" t="s">
@@ -4629,7 +4615,7 @@
       </c>
       <c r="H39" s="5"/>
       <c r="I39" s="40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J39" s="5"/>
       <c r="K39" s="41" t="n">
@@ -4682,7 +4668,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="46" t="s">
@@ -4699,7 +4685,7 @@
       </c>
       <c r="H41" s="5"/>
       <c r="I41" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J41" s="5"/>
       <c r="K41" s="41" t="n">
@@ -4745,7 +4731,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="46" t="s">
@@ -4762,7 +4748,7 @@
       </c>
       <c r="H43" s="5"/>
       <c r="I43" s="40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="41" t="n">
@@ -4808,7 +4794,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="39" t="s">
@@ -4825,7 +4811,7 @@
       </c>
       <c r="H45" s="5"/>
       <c r="I45" s="40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="41" t="n">
@@ -4866,7 +4852,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="54"/>
@@ -4904,7 +4890,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="46" t="s">
@@ -4921,7 +4907,7 @@
       </c>
       <c r="H49" s="5"/>
       <c r="I49" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J49" s="5"/>
       <c r="K49" s="41" t="n">
@@ -4967,7 +4953,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="46" t="s">
@@ -4984,7 +4970,7 @@
       </c>
       <c r="H51" s="5"/>
       <c r="I51" s="40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J51" s="5"/>
       <c r="K51" s="41" t="n">
@@ -5030,7 +5016,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="46" t="s">
@@ -5047,7 +5033,7 @@
       </c>
       <c r="H53" s="5"/>
       <c r="I53" s="40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J53" s="5"/>
       <c r="K53" s="41" t="n">
@@ -5093,7 +5079,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="46" t="s">
@@ -5110,7 +5096,7 @@
       </c>
       <c r="H55" s="5"/>
       <c r="I55" s="40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J55" s="5"/>
       <c r="K55" s="41" t="n">
@@ -5151,7 +5137,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="54"/>
@@ -5189,7 +5175,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="39" t="s">
@@ -5206,7 +5192,7 @@
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J59" s="5"/>
       <c r="K59" s="41" t="n">
@@ -5252,7 +5238,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="39" t="s">
@@ -5269,7 +5255,7 @@
       </c>
       <c r="H61" s="5"/>
       <c r="I61" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="41" t="n">
@@ -5315,7 +5301,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="39" t="s">
@@ -5332,7 +5318,7 @@
       </c>
       <c r="H63" s="5"/>
       <c r="I63" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J63" s="5"/>
       <c r="K63" s="41" t="n">
@@ -5373,7 +5359,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="54"/>
@@ -5411,7 +5397,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="39" t="s">
@@ -5428,7 +5414,7 @@
       </c>
       <c r="H67" s="5"/>
       <c r="I67" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J67" s="5"/>
       <c r="K67" s="41" t="n">
@@ -5474,7 +5460,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="39" t="s">
@@ -5490,13 +5476,13 @@
         <v>#REF!</v>
       </c>
       <c r="H69" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="I69" s="40" t="s">
-        <v>76</v>
-      </c>
       <c r="J69" s="56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K69" s="41" t="n">
         <v>2</v>
@@ -5541,7 +5527,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="39" t="s">
@@ -5558,7 +5544,7 @@
       </c>
       <c r="H71" s="5"/>
       <c r="I71" s="40" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J71" s="5"/>
       <c r="K71" s="41" t="n">
@@ -5604,7 +5590,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="39" t="s">
@@ -5621,7 +5607,7 @@
       </c>
       <c r="H73" s="5"/>
       <c r="I73" s="40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J73" s="5"/>
       <c r="K73" s="41" t="n">
@@ -5667,7 +5653,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="39" t="s">
@@ -5684,7 +5670,7 @@
       </c>
       <c r="H75" s="5"/>
       <c r="I75" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J75" s="5"/>
       <c r="K75" s="41" t="n">
@@ -5725,7 +5711,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="54"/>
@@ -5763,7 +5749,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="39" t="s">
@@ -5780,7 +5766,7 @@
       </c>
       <c r="H79" s="5"/>
       <c r="I79" s="40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J79" s="5"/>
       <c r="K79" s="41" t="n">
@@ -5826,7 +5812,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="39" t="s">
@@ -5843,7 +5829,7 @@
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="40" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J81" s="5"/>
       <c r="K81" s="41" t="n">
@@ -5889,7 +5875,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="39" t="s">
@@ -5906,7 +5892,7 @@
       </c>
       <c r="H83" s="5"/>
       <c r="I83" s="40" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J83" s="5"/>
       <c r="K83" s="41" t="n">
@@ -5952,7 +5938,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="39" t="s">
@@ -5969,7 +5955,7 @@
       </c>
       <c r="H85" s="5"/>
       <c r="I85" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J85" s="5"/>
       <c r="K85" s="41" t="n">
@@ -6010,7 +5996,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="54"/>
@@ -6048,7 +6034,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="39" t="s">
@@ -6065,7 +6051,7 @@
       </c>
       <c r="H89" s="5"/>
       <c r="I89" s="40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J89" s="5"/>
       <c r="K89" s="41" t="n">
@@ -6111,7 +6097,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="39" t="s">
@@ -6128,7 +6114,7 @@
       </c>
       <c r="H91" s="5"/>
       <c r="I91" s="40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J91" s="5"/>
       <c r="K91" s="41" t="n">
@@ -6174,7 +6160,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="39" t="s">
@@ -6191,7 +6177,7 @@
       </c>
       <c r="H93" s="5"/>
       <c r="I93" s="40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J93" s="5"/>
       <c r="K93" s="41" t="n">
@@ -6237,7 +6223,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="39" t="s">
@@ -6254,7 +6240,7 @@
       </c>
       <c r="H95" s="5"/>
       <c r="I95" s="40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J95" s="5"/>
       <c r="K95" s="41" t="n">
@@ -6300,7 +6286,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="39" t="s">
@@ -6317,7 +6303,7 @@
       </c>
       <c r="H97" s="5"/>
       <c r="I97" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J97" s="5"/>
       <c r="K97" s="41" t="n">
@@ -6358,7 +6344,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="54"/>
@@ -6396,7 +6382,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="46" t="s">
@@ -6413,7 +6399,7 @@
       </c>
       <c r="H101" s="5"/>
       <c r="I101" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J101" s="5"/>
       <c r="K101" s="41" t="n">
@@ -6459,7 +6445,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="39" t="s">
@@ -6476,7 +6462,7 @@
       </c>
       <c r="H103" s="5"/>
       <c r="I103" s="40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J103" s="5"/>
       <c r="K103" s="41" t="n">
@@ -6522,7 +6508,7 @@
         <v>41</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="39" t="s">
@@ -6539,7 +6525,7 @@
       </c>
       <c r="H105" s="5"/>
       <c r="I105" s="40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J105" s="5"/>
       <c r="K105" s="41" t="n">
@@ -6585,7 +6571,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="39" t="s">
@@ -6602,7 +6588,7 @@
       </c>
       <c r="H107" s="5"/>
       <c r="I107" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J107" s="5"/>
       <c r="K107" s="41" t="n">
@@ -6643,7 +6629,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="35"/>
       <c r="D109" s="54"/>
@@ -6681,7 +6667,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="46" t="s">
@@ -6698,7 +6684,7 @@
       </c>
       <c r="H111" s="19"/>
       <c r="I111" s="40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J111" s="19"/>
       <c r="K111" s="28" t="n">
@@ -6766,7 +6752,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="39" t="s">
@@ -6783,7 +6769,7 @@
       </c>
       <c r="H113" s="19"/>
       <c r="I113" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J113" s="19"/>
       <c r="K113" s="28" t="n">
@@ -6851,7 +6837,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="39" t="s">
@@ -6868,7 +6854,7 @@
       </c>
       <c r="H115" s="19"/>
       <c r="I115" s="40" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J115" s="19"/>
       <c r="K115" s="28" t="n">
@@ -6920,7 +6906,7 @@
     </row>
     <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="63"/>
       <c r="C117" s="64"/>
@@ -7074,10 +7060,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B125" s="74" t="s">
+        <v>118</v>
+      </c>
+      <c r="C125" s="75" t="s">
         <v>119</v>
-      </c>
-      <c r="C125" s="75" t="s">
-        <v>120</v>
       </c>
       <c r="D125" s="76"/>
       <c r="E125" s="5"/>
@@ -7094,7 +7080,7 @@
       <c r="A126" s="5"/>
       <c r="B126" s="77"/>
       <c r="C126" s="78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D126" s="79"/>
       <c r="E126" s="79"/>
@@ -10236,13 +10222,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z324"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="60.29"/>
@@ -10261,7 +10247,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -10502,7 +10488,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="46" t="s">
@@ -10577,7 +10563,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="46" t="s">
@@ -10650,7 +10636,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="46" t="s">
@@ -10719,7 +10705,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="46" t="s">
@@ -10785,7 +10771,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="46" t="s">
@@ -10845,7 +10831,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="44"/>
@@ -10883,7 +10869,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="46" t="s">
@@ -10947,7 +10933,7 @@
         <v>7</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="46" t="s">
@@ -11012,7 +10998,7 @@
         <v>8</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="46" t="s">
@@ -11067,7 +11053,7 @@
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="35"/>
       <c r="D27" s="54"/>
@@ -11111,7 +11097,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="46" t="s">
@@ -11179,7 +11165,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="38" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="46" t="s">
@@ -11240,7 +11226,7 @@
         <v>11</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="46" t="s">
@@ -11295,7 +11281,7 @@
         <v>12</v>
       </c>
       <c r="B35" s="38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="46" t="s">
@@ -11356,7 +11342,7 @@
         <v>13</v>
       </c>
       <c r="B37" s="38" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="46" t="s">
@@ -11417,7 +11403,7 @@
         <v>14</v>
       </c>
       <c r="B39" s="38" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="46" t="s">
@@ -11485,7 +11471,7 @@
         <v>15</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="46" t="s">
@@ -11546,7 +11532,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="46" t="s">
@@ -11607,7 +11593,7 @@
         <v>17</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="46" t="s">
@@ -11663,7 +11649,7 @@
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47" s="35"/>
       <c r="D47" s="54"/>
@@ -11701,7 +11687,7 @@
         <v>18</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="46" t="s">
@@ -11762,7 +11748,7 @@
         <v>19</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="46" t="s">
@@ -11823,7 +11809,7 @@
         <v>20</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="46" t="s">
@@ -11884,7 +11870,7 @@
         <v>21</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="46" t="s">
@@ -11940,7 +11926,7 @@
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C57" s="35"/>
       <c r="D57" s="54"/>
@@ -11978,7 +11964,7 @@
         <v>22</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="46" t="s">
@@ -12039,7 +12025,7 @@
         <v>23</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="46" t="s">
@@ -12100,7 +12086,7 @@
         <v>24</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="46" t="s">
@@ -12156,7 +12142,7 @@
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C65" s="35"/>
       <c r="D65" s="54"/>
@@ -12194,7 +12180,7 @@
         <v>25</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="46" t="s">
@@ -12255,7 +12241,7 @@
         <v>26</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="46" t="s">
@@ -12316,7 +12302,7 @@
         <v>27</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="46" t="s">
@@ -12377,7 +12363,7 @@
         <v>28</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="46" t="s">
@@ -12438,7 +12424,7 @@
         <v>29</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="46" t="s">
@@ -12494,7 +12480,7 @@
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="35"/>
       <c r="D77" s="54"/>
@@ -12532,7 +12518,7 @@
         <v>30</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="46" t="s">
@@ -12593,7 +12579,7 @@
         <v>31</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="46" t="s">
@@ -12654,7 +12640,7 @@
         <v>32</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="46" t="s">
@@ -12715,7 +12701,7 @@
         <v>33</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="46" t="s">
@@ -12771,7 +12757,7 @@
     </row>
     <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C87" s="35"/>
       <c r="D87" s="54"/>
@@ -12809,7 +12795,7 @@
         <v>34</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="46" t="s">
@@ -12870,7 +12856,7 @@
         <v>35</v>
       </c>
       <c r="B91" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="46" t="s">
@@ -12931,7 +12917,7 @@
         <v>36</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="46" t="s">
@@ -12992,7 +12978,7 @@
         <v>37</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="46" t="s">
@@ -13053,7 +13039,7 @@
         <v>38</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="46" t="s">
@@ -13109,7 +13095,7 @@
     </row>
     <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="31" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C99" s="35"/>
       <c r="D99" s="54"/>
@@ -13147,7 +13133,7 @@
         <v>39</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="46" t="s">
@@ -13208,7 +13194,7 @@
         <v>40</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="46" t="s">
@@ -13269,7 +13255,7 @@
         <v>41</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="46" t="s">
@@ -13330,7 +13316,7 @@
         <v>42</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="46" t="s">
@@ -13386,7 +13372,7 @@
     </row>
     <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C109" s="35"/>
       <c r="D109" s="54"/>
@@ -13424,7 +13410,7 @@
         <v>43</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C111" s="19"/>
       <c r="D111" s="46" t="s">
@@ -13507,7 +13493,7 @@
         <v>44</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C113" s="19"/>
       <c r="D113" s="46" t="s">
@@ -13590,7 +13576,7 @@
         <v>45</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" s="19"/>
       <c r="D115" s="46" t="s">
@@ -13657,7 +13643,7 @@
     </row>
     <row r="117" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B117" s="63"/>
       <c r="C117" s="64"/>
@@ -16928,13 +16914,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W267"/>
+  <dimension ref="A1:W1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="103.58"/>
@@ -16944,7 +16930,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16952,7 +16938,7 @@
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B2" s="56"/>
       <c r="C2" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16987,10 +16973,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="83" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>170</v>
-      </c>
-      <c r="C4" s="84" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -16999,10 +16985,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="83" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C5" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17011,10 +16997,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="83" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="84" t="s">
         <v>173</v>
-      </c>
-      <c r="C6" s="84" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17023,10 +17009,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="83" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="84" t="s">
         <v>175</v>
-      </c>
-      <c r="C7" s="84" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17035,10 +17021,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C8" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17047,7 +17033,7 @@
     </row>
     <row r="10" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="81" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -17078,10 +17064,10 @@
         <v>6</v>
       </c>
       <c r="B11" s="83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C11" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17090,10 +17076,10 @@
         <v>7</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C12" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17102,10 +17088,10 @@
         <v>8</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C13" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17114,7 +17100,7 @@
     </row>
     <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="81" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -17145,10 +17131,10 @@
         <v>9</v>
       </c>
       <c r="B16" s="83" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="84" t="s">
         <v>181</v>
-      </c>
-      <c r="C16" s="84" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17157,10 +17143,10 @@
         <v>10</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17169,10 +17155,10 @@
         <v>11</v>
       </c>
       <c r="B18" s="83" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C18" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17181,10 +17167,10 @@
         <v>12</v>
       </c>
       <c r="B19" s="83" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C19" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17193,10 +17179,10 @@
         <v>13</v>
       </c>
       <c r="B20" s="83" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C20" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17205,10 +17191,10 @@
         <v>14</v>
       </c>
       <c r="B21" s="83" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17217,10 +17203,10 @@
         <v>15</v>
       </c>
       <c r="B22" s="83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C22" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17229,10 +17215,10 @@
         <v>16</v>
       </c>
       <c r="B23" s="83" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C23" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17241,10 +17227,10 @@
         <v>17</v>
       </c>
       <c r="B24" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C24" s="84" t="s">
         <v>190</v>
-      </c>
-      <c r="C24" s="84" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17253,7 +17239,7 @@
     </row>
     <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="19"/>
       <c r="C26" s="19"/>
@@ -17284,10 +17270,10 @@
         <v>18</v>
       </c>
       <c r="B27" s="83" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C27" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17296,10 +17282,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="83" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C28" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17308,10 +17294,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C29" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17320,10 +17306,10 @@
         <v>21</v>
       </c>
       <c r="B30" s="83" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C30" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17332,7 +17318,7 @@
     </row>
     <row r="32" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="81" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B32" s="19"/>
       <c r="C32" s="19"/>
@@ -17363,10 +17349,10 @@
         <v>22</v>
       </c>
       <c r="B33" s="83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C33" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17375,10 +17361,10 @@
         <v>23</v>
       </c>
       <c r="B34" s="83" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C34" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17387,10 +17373,10 @@
         <v>24</v>
       </c>
       <c r="B35" s="83" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="84" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17399,7 +17385,7 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="81" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="19"/>
       <c r="C37" s="19"/>
@@ -17430,10 +17416,10 @@
         <v>25</v>
       </c>
       <c r="B38" s="83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C38" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17442,10 +17428,10 @@
         <v>26</v>
       </c>
       <c r="B39" s="83" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C39" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17454,10 +17440,10 @@
         <v>27</v>
       </c>
       <c r="B40" s="83" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C40" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17466,10 +17452,10 @@
         <v>28</v>
       </c>
       <c r="B41" s="83" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C41" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17478,10 +17464,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C42" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17490,7 +17476,7 @@
     </row>
     <row r="44" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="81" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="19"/>
       <c r="C44" s="19"/>
@@ -17521,10 +17507,10 @@
         <v>30</v>
       </c>
       <c r="B45" s="83" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C45" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17533,10 +17519,10 @@
         <v>31</v>
       </c>
       <c r="B46" s="83" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C46" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17545,10 +17531,10 @@
         <v>32</v>
       </c>
       <c r="B47" s="83" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C47" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17557,10 +17543,10 @@
         <v>33</v>
       </c>
       <c r="B48" s="83" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C48" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17569,7 +17555,7 @@
     </row>
     <row r="50" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="81" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B50" s="19"/>
       <c r="C50" s="19"/>
@@ -17600,10 +17586,10 @@
         <v>34</v>
       </c>
       <c r="B51" s="83" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C51" s="84" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17612,10 +17598,10 @@
         <v>35</v>
       </c>
       <c r="B52" s="83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C52" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17624,10 +17610,10 @@
         <v>36</v>
       </c>
       <c r="B53" s="83" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C53" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17636,10 +17622,10 @@
         <v>37</v>
       </c>
       <c r="B54" s="83" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C54" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17648,10 +17634,10 @@
         <v>38</v>
       </c>
       <c r="B55" s="83" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C55" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17660,7 +17646,7 @@
     </row>
     <row r="57" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="81" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" s="19"/>
       <c r="C57" s="19"/>
@@ -17691,10 +17677,10 @@
         <v>39</v>
       </c>
       <c r="B58" s="83" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17703,10 +17689,10 @@
         <v>40</v>
       </c>
       <c r="B59" s="83" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C59" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17715,10 +17701,10 @@
         <v>41</v>
       </c>
       <c r="B60" s="83" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17727,10 +17713,10 @@
         <v>42</v>
       </c>
       <c r="B61" s="83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C61" s="84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17739,7 +17725,7 @@
     </row>
     <row r="63" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B63" s="19"/>
       <c r="C63" s="19"/>
@@ -17770,10 +17756,10 @@
         <v>43</v>
       </c>
       <c r="B64" s="83" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C64" s="84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17782,10 +17768,10 @@
         <v>44</v>
       </c>
       <c r="B65" s="83" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C65" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="51" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17794,10 +17780,10 @@
         <v>45</v>
       </c>
       <c r="B66" s="83" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C66" s="84" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -19358,13 +19344,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F221"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.57"/>
@@ -19376,13 +19362,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="85" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="C1" s="86" t="s">
         <v>221</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>222</v>
       </c>
       <c r="D1" s="86"/>
       <c r="E1" s="86"/>
@@ -19402,10 +19388,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="C3" s="88" t="s">
         <v>223</v>
-      </c>
-      <c r="C3" s="88" t="s">
-        <v>224</v>
       </c>
       <c r="D3" s="89" t="n">
         <f aca="false">A4</f>
@@ -19420,14 +19406,14 @@
         <v>6</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D4" s="89" t="n">
         <f aca="false">A4</f>
         <v>29</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F4" s="89" t="n">
         <f aca="false">A5</f>
@@ -19442,14 +19428,14 @@
         <v>7</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D5" s="89" t="n">
         <f aca="false">A5</f>
         <v>49</v>
       </c>
       <c r="E5" s="90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F5" s="89" t="n">
         <f aca="false">A6</f>
@@ -19464,14 +19450,14 @@
         <v>11</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D6" s="89" t="n">
         <f aca="false">A6</f>
         <v>69</v>
       </c>
       <c r="E6" s="90" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F6" s="89" t="n">
         <f aca="false">A7</f>
@@ -19486,7 +19472,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="88" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D7" s="89" t="n">
         <f aca="false">A7</f>
